--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>I put a lot effort into the editing part because I did lifting in a new way that I never did before It was challenging, I researched too much to learn how to make the form reusable.</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Fixed all the UI items</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Fixed all the Format items</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Fixed all the Structure items</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Fixed the Logic items (missing the one related with additional data, more info requested via email)</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -1013,10 +1037,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1570,10 +1594,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2058,34 +2082,66 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="A16" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>45042</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>32</v>
+      </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="A17" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B17" s="20">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21">
+        <v>45050</v>
+      </c>
+      <c r="D17" t="s" s="22">
+        <v>34</v>
+      </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
     </row>
     <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="A18" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="B18" s="20">
+        <v>3</v>
+      </c>
+      <c r="C18" s="21">
+        <v>45047</v>
+      </c>
+      <c r="D18" t="s" s="22">
+        <v>36</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+    <row r="19" ht="23" customHeight="1">
+      <c r="A19" t="s" s="19">
+        <v>37</v>
+      </c>
+      <c r="B19" s="20">
+        <v>8</v>
+      </c>
+      <c r="C19" s="21">
+        <v>45049</v>
+      </c>
+      <c r="D19" t="s" s="22">
+        <v>38</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
@@ -2187,11 +2243,11 @@
     </row>
     <row r="32" ht="16.25" customHeight="1">
       <c r="A32" t="s" s="35">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B32" s="36">
         <f>SUMIF(E4:E30,"&lt;&gt;x",B4:B30)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
